--- a/biology/Botanique/Seseli_tortuosum/Seseli_tortuosum.xlsx
+++ b/biology/Botanique/Seseli_tortuosum/Seseli_tortuosum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Séséli tortueux
 Seseli tortuosum (le Séséli tortueux) est une espèce botanique de la famille des Apiaceae (Ombellífères).
@@ -512,11 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plante perenne, ramifiée, ouverte et compacte de 50 a 70 cm de haut, rigide et enchevêtrée, ses nombreuses tiges changent constamment de direction et s'entrecroisent, glabre et de couleur verte bleutée. Dans chaque tige florifère il y a 10 ombelles ou plus , avec jusqu’à 10 rayons ouverts, portant d'autres ombelles plus petites, avec beaucoup de fleurs blanches, parfois rougeâtres ou même violacées, 5 étamines et deux styles ouverts et persistants, 5 pétales blancs , ouverts , deux sphères collées dans le centre de la fleur. Les ombelles secondaires sont arrondies, mais plates à maturité. Une grosse Racine charnue, tubereuse, enveloppée dans sa partie supérieure par un épais tissu de fibres marron, restes d'anciennes feuilles[1],[2].
-Description de Coste
-Plante vivace de 20 à 50 cm, glabre et très glauque, à tige épaisse, striée, très rameuse dès la base, à rameaux tortueux, divariqués, formant buisson ; feuilles inférieures à pétiole canaliculé en dessus, triangulaires dans leur pourtour, bi-tripennatiséquées, à lanières charnues, linéaires, canaliculées en dessus, finement denticulées aux bords ; fleurs blanches ou rougeâtres, en ombelles nombreuses, à 4-10 rayons pubescents en dedans ; involucre nul ; involucelle à folioles lancéolées, largement scarieuses aux bords, plus longues que les pédicelles ; styles une fois plus longs que le stylopode ; fruit mûr pubescent, à côtes épaisses et carénées.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plante perenne, ramifiée, ouverte et compacte de 50 a 70 cm de haut, rigide et enchevêtrée, ses nombreuses tiges changent constamment de direction et s'entrecroisent, glabre et de couleur verte bleutée. Dans chaque tige florifère il y a 10 ombelles ou plus , avec jusqu’à 10 rayons ouverts, portant d'autres ombelles plus petites, avec beaucoup de fleurs blanches, parfois rougeâtres ou même violacées, 5 étamines et deux styles ouverts et persistants, 5 pétales blancs , ouverts , deux sphères collées dans le centre de la fleur. Les ombelles secondaires sont arrondies, mais plates à maturité. Une grosse Racine charnue, tubereuse, enveloppée dans sa partie supérieure par un épais tissu de fibres marron, restes d'anciennes feuilles,.
 </t>
         </is>
       </c>
@@ -542,12 +554,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Utilisation</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Les graines de la plante appelée Seseli de Marseille (= Seseli tortuosum) étaient un des multiples constituants de la thériaque de la pharmacopée maritime occidentale au XVIIIe siècle [3].
+          <t>Description de Coste</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plante vivace de 20 à 50 cm, glabre et très glauque, à tige épaisse, striée, très rameuse dès la base, à rameaux tortueux, divariqués, formant buisson ; feuilles inférieures à pétiole canaliculé en dessus, triangulaires dans leur pourtour, bi-tripennatiséquées, à lanières charnues, linéaires, canaliculées en dessus, finement denticulées aux bords ; fleurs blanches ou rougeâtres, en ombelles nombreuses, à 4-10 rayons pubescents en dedans ; involucre nul ; involucelle à folioles lancéolées, largement scarieuses aux bords, plus longues que les pédicelles ; styles une fois plus longs que le stylopode ; fruit mûr pubescent, à côtes épaisses et carénées.
 </t>
         </is>
       </c>
@@ -573,12 +591,14 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Distribution</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est assez commune dans les pelouses sèches et parmi les rocailles de la région méditerranéenne, sur les bords de chemins et les terres incultes.
+          <t>Utilisation</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les graines de la plante appelée Seseli de Marseille (= Seseli tortuosum) étaient un des multiples constituants de la thériaque de la pharmacopée maritime occidentale au XVIIIe siècle .
 </t>
         </is>
       </c>
@@ -604,12 +624,47 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est assez commune dans les pelouses sèches et parmi les rocailles de la région méditerranéenne, sur les bords de chemins et les terres incultes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Seseli_tortuosum</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Seseli_tortuosum</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Seseli tortuosum a été décrite par Carl von Linné et publié dans Species Plantarum 259, en 1753[4].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Seseli tortuosum a été décrite par Carl von Linné et publié dans Species Plantarum 259, en 1753.
 Synonymie
 Athamanta ramosissima Hoffmanns. &amp; Lien
 Seseli littorale Willk.
@@ -623,38 +678,7 @@
 Seseli peucedanifolium Besser
 Seseli rigidum Waldst. &amp; Kit.
 Seseli tenderiense Kotov
-Seseli tortuosum var. paucirdiatum Tamamsch [5]</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Seseli_tortuosum</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Seseli_tortuosum</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Noms communs</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cumin de Marseille, cumin rustique, herbe du sacristain, second fenouil sauvage, Séséli de Marseille[6].
-</t>
+Seseli tortuosum var. paucirdiatum Tamamsch </t>
         </is>
       </c>
     </row>
@@ -679,10 +703,45 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Noms communs</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cumin de Marseille, cumin rustique, herbe du sacristain, second fenouil sauvage, Séséli de Marseille.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Seseli_tortuosum</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Seseli_tortuosum</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Sources</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Annexe: Chronologie de la botanique
 Histoire de la botanique
